--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -62,10 +62,10 @@
     <t>Null</t>
   </si>
   <si>
-    <t>/Musala-Soft/CV/Ahmed Osama Rashad.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>/Musala-Soft/CV/ssd.docx</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -486,7 +486,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
